--- a/frequencia.xlsx
+++ b/frequencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\GitHub\julia_calhau-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FE7475-64F5-4BE1-8832-6CC255CB1577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFA53BF2-0E98-4BEB-BD72-BBA11E65838C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="89">
   <si>
     <t>Alunos</t>
   </si>
@@ -299,7 +299,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +309,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -336,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -351,6 +359,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,13 +1051,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AS41"/>
+  <dimension ref="A1:AS42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V29" sqref="V29"/>
+      <selection pane="bottomRight" activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,6 +1318,9 @@
       <c r="V3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="W3" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1375,6 +1389,9 @@
       <c r="V4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="W4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1443,6 +1460,9 @@
       <c r="V5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="W5" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1511,6 +1531,9 @@
       <c r="V6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="W6" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1579,6 +1602,9 @@
       <c r="V7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="W7" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1647,6 +1673,9 @@
       <c r="V8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="W8" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1715,6 +1744,9 @@
       <c r="V9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="W9" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1783,6 +1815,9 @@
       <c r="V10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="W10" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1851,6 +1886,9 @@
       <c r="V11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="W11" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1919,6 +1957,9 @@
       <c r="V12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="W12" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1987,6 +2028,9 @@
       <c r="V13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="W13" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -2055,6 +2099,9 @@
       <c r="V14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="W14" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -2123,6 +2170,9 @@
       <c r="V15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="W15" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -2191,8 +2241,11 @@
       <c r="V16" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -2259,8 +2312,11 @@
       <c r="V17" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>62</v>
       </c>
@@ -2327,8 +2383,11 @@
       <c r="V18" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>63</v>
       </c>
@@ -2395,8 +2454,11 @@
       <c r="V19" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>64</v>
       </c>
@@ -2463,8 +2525,11 @@
       <c r="V20" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>65</v>
       </c>
@@ -2531,8 +2596,11 @@
       <c r="V21" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>66</v>
       </c>
@@ -2599,8 +2667,11 @@
       <c r="V22" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>67</v>
       </c>
@@ -2667,8 +2738,11 @@
       <c r="V23" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>68</v>
       </c>
@@ -2735,8 +2809,11 @@
       <c r="V24" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>69</v>
       </c>
@@ -2803,8 +2880,11 @@
       <c r="V25" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>70</v>
       </c>
@@ -2871,8 +2951,11 @@
       <c r="V26" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>71</v>
       </c>
@@ -2939,8 +3022,11 @@
       <c r="V27" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>72</v>
       </c>
@@ -3007,8 +3093,11 @@
       <c r="V28" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>73</v>
       </c>
@@ -3075,8 +3164,11 @@
       <c r="V29" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>74</v>
       </c>
@@ -3143,8 +3235,11 @@
       <c r="V30" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
@@ -3211,8 +3306,11 @@
       <c r="V31" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>76</v>
       </c>
@@ -3279,8 +3377,11 @@
       <c r="V32" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>77</v>
       </c>
@@ -3347,8 +3448,11 @@
       <c r="V33" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>78</v>
       </c>
@@ -3415,8 +3519,11 @@
       <c r="V34" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>79</v>
       </c>
@@ -3483,8 +3590,11 @@
       <c r="V35" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3661,11 @@
       <c r="V36" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>81</v>
       </c>
@@ -3619,8 +3732,11 @@
       <c r="V37" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>82</v>
       </c>
@@ -3687,8 +3803,11 @@
       <c r="V38" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>83</v>
       </c>
@@ -3755,8 +3874,11 @@
       <c r="V39" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>84</v>
       </c>
@@ -3823,8 +3945,11 @@
       <c r="V40" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>85</v>
       </c>
@@ -3891,6 +4016,12 @@
       <c r="V41" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="W41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B28">

--- a/frequencia.xlsx
+++ b/frequencia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\GitHub\julia_calhau-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84587DCC-1C0D-44E7-88C4-FC8392396AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="90">
   <si>
     <t>Alunos</t>
   </si>
@@ -300,7 +301,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -360,16 +361,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,7 +709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1058,14 +1056,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z31" sqref="Z31"/>
+      <selection pane="bottomRight" activeCell="AA41" sqref="AA41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,10 +1081,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="2">
         <v>45342</v>
       </c>
@@ -1159,8 +1157,12 @@
       <c r="Z1" s="2">
         <v>45420</v>
       </c>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
+      <c r="AA1" s="2">
+        <v>45426</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>45427</v>
+      </c>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
@@ -1258,6 +1260,12 @@
       <c r="Z2" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="AA2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1329,13 +1337,19 @@
       <c r="W3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1409,13 +1423,19 @@
       <c r="W4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="Z4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1489,13 +1509,19 @@
       <c r="W5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z5" s="7" t="s">
+      <c r="Z5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1569,13 +1595,19 @@
       <c r="W6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="X6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z6" s="7" t="s">
+      <c r="Z6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1617,7 +1649,7 @@
         <v>3</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>3</v>
@@ -1649,13 +1681,19 @@
       <c r="W7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="X7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z7" s="7" t="s">
+      <c r="Z7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1729,13 +1767,19 @@
       <c r="W8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="X8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z8" s="7" t="s">
+      <c r="Z8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1809,13 +1853,19 @@
       <c r="W9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X9" s="5" t="s">
+      <c r="X9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="7" t="s">
+      <c r="Z9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1889,13 +1939,19 @@
       <c r="W10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X10" s="5" t="s">
+      <c r="X10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z10" s="7" t="s">
+      <c r="Z10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1969,13 +2025,19 @@
       <c r="W11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X11" s="5" t="s">
+      <c r="X11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z11" s="7" t="s">
+      <c r="Z11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2049,13 +2111,19 @@
       <c r="W12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X12" s="5" t="s">
+      <c r="X12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z12" s="7" t="s">
+      <c r="Z12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2129,13 +2197,19 @@
       <c r="W13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X13" s="5" t="s">
+      <c r="X13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z13" s="7" t="s">
+      <c r="Z13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2209,13 +2283,19 @@
       <c r="W14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X14" s="5" t="s">
+      <c r="X14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z14" s="7" t="s">
+      <c r="Z14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2289,13 +2369,19 @@
       <c r="W15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X15" s="5" t="s">
+      <c r="X15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z15" s="7" t="s">
+      <c r="Z15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2369,17 +2455,23 @@
       <c r="W16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X16" s="5" t="s">
+      <c r="X16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z16" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -2449,17 +2541,23 @@
       <c r="W17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X17" s="5" t="s">
+      <c r="X17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z17" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>62</v>
       </c>
@@ -2529,17 +2627,23 @@
       <c r="W18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X18" s="5" t="s">
+      <c r="X18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z18" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>63</v>
       </c>
@@ -2609,17 +2713,23 @@
       <c r="W19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X19" s="5" t="s">
+      <c r="X19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z19" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>64</v>
       </c>
@@ -2689,17 +2799,23 @@
       <c r="W20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X20" s="5" t="s">
+      <c r="X20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z20" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>65</v>
       </c>
@@ -2769,17 +2885,23 @@
       <c r="W21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X21" s="5" t="s">
+      <c r="X21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z21" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>66</v>
       </c>
@@ -2849,17 +2971,23 @@
       <c r="W22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X22" s="5" t="s">
+      <c r="X22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z22" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>67</v>
       </c>
@@ -2929,17 +3057,23 @@
       <c r="W23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X23" s="5" t="s">
+      <c r="X23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z23" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>68</v>
       </c>
@@ -3009,17 +3143,23 @@
       <c r="W24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X24" s="5" t="s">
+      <c r="X24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z24" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>69</v>
       </c>
@@ -3089,17 +3229,23 @@
       <c r="W25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X25" s="5" t="s">
+      <c r="X25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z25" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>70</v>
       </c>
@@ -3169,17 +3315,23 @@
       <c r="W26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X26" s="5" t="s">
+      <c r="X26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z26" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>71</v>
       </c>
@@ -3249,17 +3401,23 @@
       <c r="W27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X27" s="5" t="s">
+      <c r="X27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z27" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>72</v>
       </c>
@@ -3329,17 +3487,23 @@
       <c r="W28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X28" s="5" t="s">
+      <c r="X28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z28" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>73</v>
       </c>
@@ -3409,17 +3573,23 @@
       <c r="W29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X29" s="5" t="s">
+      <c r="X29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Z29" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>74</v>
       </c>
@@ -3489,17 +3659,23 @@
       <c r="W30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X30" s="5" t="s">
+      <c r="X30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z30" s="7" t="s">
+      <c r="Z30" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
@@ -3569,17 +3745,23 @@
       <c r="W31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X31" s="5" t="s">
+      <c r="X31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z31" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>76</v>
       </c>
@@ -3623,7 +3805,7 @@
         <v>3</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>3</v>
@@ -3649,17 +3831,23 @@
       <c r="W32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X32" s="5" t="s">
+      <c r="X32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z32" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>77</v>
       </c>
@@ -3729,17 +3917,23 @@
       <c r="W33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X33" s="5" t="s">
+      <c r="X33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z33" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>78</v>
       </c>
@@ -3809,17 +4003,23 @@
       <c r="W34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X34" s="5" t="s">
+      <c r="X34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z34" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>79</v>
       </c>
@@ -3889,17 +4089,23 @@
       <c r="W35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X35" s="5" t="s">
+      <c r="X35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z35" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>80</v>
       </c>
@@ -3969,17 +4175,23 @@
       <c r="W36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X36" s="5" t="s">
+      <c r="X36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z36" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>81</v>
       </c>
@@ -4049,17 +4261,23 @@
       <c r="W37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X37" s="5" t="s">
+      <c r="X37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>82</v>
       </c>
@@ -4129,17 +4347,23 @@
       <c r="W38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X38" s="5" t="s">
+      <c r="X38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z38" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>83</v>
       </c>
@@ -4209,17 +4433,23 @@
       <c r="W39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X39" s="5" t="s">
+      <c r="X39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z39" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>84</v>
       </c>
@@ -4289,17 +4519,23 @@
       <c r="W40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X40" s="5" t="s">
+      <c r="X40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z40" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>85</v>
       </c>
@@ -4369,21 +4605,27 @@
       <c r="W41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X41" s="5" t="s">
+      <c r="X41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z41" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
+      <c r="Z41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A3:B28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B28">
     <sortCondition ref="B2:B28"/>
   </sortState>
   <mergeCells count="1">

--- a/frequencia.xlsx
+++ b/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\GitHub\julia_calhau-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84587DCC-1C0D-44E7-88C4-FC8392396AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6683D145-8DF2-4112-AC9D-FA7CC8EC7061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="2190" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="90">
   <si>
     <t>Alunos</t>
   </si>
@@ -347,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -365,9 +365,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,10 +1057,10 @@
   <dimension ref="A1:AS42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA41" sqref="AA41"/>
+      <selection pane="bottomRight" activeCell="AC40" sqref="AC40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1160,9 @@
       <c r="AB1" s="2">
         <v>45427</v>
       </c>
-      <c r="AC1" s="2"/>
+      <c r="AC1" s="2">
+        <v>45433</v>
+      </c>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
@@ -1266,6 +1265,9 @@
       <c r="AB2" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="AC2" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1352,6 +1354,9 @@
       <c r="AB3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AC3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1438,6 +1443,9 @@
       <c r="AB4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AC4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1524,6 +1532,9 @@
       <c r="AB5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AC5" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1610,6 +1621,9 @@
       <c r="AB6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AC6" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1696,6 +1710,9 @@
       <c r="AB7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AC7" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1782,6 +1799,9 @@
       <c r="AB8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AC8" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1868,6 +1888,9 @@
       <c r="AB9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AC9" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1954,6 +1977,9 @@
       <c r="AB10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AC10" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2040,6 +2066,9 @@
       <c r="AB11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AC11" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2126,6 +2155,9 @@
       <c r="AB12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AC12" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -2212,6 +2244,9 @@
       <c r="AB13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AC13" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -2298,6 +2333,9 @@
       <c r="AB14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AC14" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -2384,6 +2422,9 @@
       <c r="AB15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AC15" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -2470,8 +2511,11 @@
       <c r="AB16" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -2556,8 +2600,11 @@
       <c r="AB17" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>62</v>
       </c>
@@ -2642,8 +2689,11 @@
       <c r="AB18" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>63</v>
       </c>
@@ -2728,8 +2778,11 @@
       <c r="AB19" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>64</v>
       </c>
@@ -2814,8 +2867,11 @@
       <c r="AB20" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>65</v>
       </c>
@@ -2900,8 +2956,11 @@
       <c r="AB21" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>66</v>
       </c>
@@ -2986,8 +3045,11 @@
       <c r="AB22" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>67</v>
       </c>
@@ -3072,8 +3134,11 @@
       <c r="AB23" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>68</v>
       </c>
@@ -3158,8 +3223,11 @@
       <c r="AB24" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>69</v>
       </c>
@@ -3244,8 +3312,11 @@
       <c r="AB25" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>70</v>
       </c>
@@ -3330,8 +3401,11 @@
       <c r="AB26" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>71</v>
       </c>
@@ -3416,8 +3490,11 @@
       <c r="AB27" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>72</v>
       </c>
@@ -3502,8 +3579,11 @@
       <c r="AB28" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>73</v>
       </c>
@@ -3588,8 +3668,11 @@
       <c r="AB29" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>74</v>
       </c>
@@ -3674,8 +3757,11 @@
       <c r="AB30" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
@@ -3760,8 +3846,11 @@
       <c r="AB31" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +3935,11 @@
       <c r="AB32" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>77</v>
       </c>
@@ -3932,8 +4024,11 @@
       <c r="AB33" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>78</v>
       </c>
@@ -4018,8 +4113,11 @@
       <c r="AB34" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>79</v>
       </c>
@@ -4104,8 +4202,11 @@
       <c r="AB35" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>80</v>
       </c>
@@ -4190,8 +4291,11 @@
       <c r="AB36" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>81</v>
       </c>
@@ -4276,8 +4380,11 @@
       <c r="AB37" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>82</v>
       </c>
@@ -4362,8 +4469,11 @@
       <c r="AB38" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>83</v>
       </c>
@@ -4448,8 +4558,11 @@
       <c r="AB39" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>84</v>
       </c>
@@ -4534,8 +4647,11 @@
       <c r="AB40" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC40" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>85</v>
       </c>
@@ -4614,14 +4730,17 @@
       <c r="Z41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA41" s="7" t="s">
+      <c r="AA41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AB41" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
     </row>
   </sheetData>
